--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N2">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O2">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P2">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q2">
-        <v>2.878263953851334</v>
+        <v>0.5318305254076666</v>
       </c>
       <c r="R2">
-        <v>25.904375584662</v>
+        <v>4.786474728669</v>
       </c>
       <c r="S2">
-        <v>0.03835521019324913</v>
+        <v>0.002860868016369354</v>
       </c>
       <c r="T2">
-        <v>0.03835521019324912</v>
+        <v>0.002860868016369354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N3">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O3">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P3">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q3">
-        <v>4.401208471656667</v>
+        <v>30.00657747459</v>
       </c>
       <c r="R3">
-        <v>39.61087624491</v>
+        <v>270.05919727131</v>
       </c>
       <c r="S3">
-        <v>0.05864968562345391</v>
+        <v>0.1614139348469338</v>
       </c>
       <c r="T3">
-        <v>0.05864968562345391</v>
+        <v>0.1614139348469338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N4">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O4">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P4">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q4">
-        <v>7.706572336794001</v>
+        <v>4.653344223388666</v>
       </c>
       <c r="R4">
-        <v>69.35915103114601</v>
+        <v>41.880098010498</v>
       </c>
       <c r="S4">
-        <v>0.1026963498089517</v>
+        <v>0.02503166520508606</v>
       </c>
       <c r="T4">
-        <v>0.1026963498089517</v>
+        <v>0.02503166520508606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H5">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N5">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O5">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P5">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q5">
-        <v>2.893356724037333</v>
+        <v>6.429867033396333</v>
       </c>
       <c r="R5">
-        <v>26.040210516336</v>
+        <v>57.86880330056699</v>
       </c>
       <c r="S5">
-        <v>0.03855633364202379</v>
+        <v>0.03458808787113313</v>
       </c>
       <c r="T5">
-        <v>0.03855633364202379</v>
+        <v>0.03458808787113313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J6">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N6">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O6">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P6">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q6">
-        <v>3.273876715234334</v>
+        <v>0.4871783473543334</v>
       </c>
       <c r="R6">
-        <v>29.464890437109</v>
+        <v>4.384605126189</v>
       </c>
       <c r="S6">
-        <v>0.04362707228139186</v>
+        <v>0.002620671220677549</v>
       </c>
       <c r="T6">
-        <v>0.04362707228139186</v>
+        <v>0.002620671220677549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N7">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O7">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P7">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q7">
-        <v>5.006147512971667</v>
+        <v>27.48724288179001</v>
       </c>
       <c r="R7">
-        <v>45.055327616745</v>
+        <v>247.38518593611</v>
       </c>
       <c r="S7">
-        <v>0.0667109907906512</v>
+        <v>0.1478617158321459</v>
       </c>
       <c r="T7">
-        <v>0.06671099079065118</v>
+        <v>0.1478617158321459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N8">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O8">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P8">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q8">
-        <v>8.765828336883002</v>
+        <v>4.262652179815333</v>
       </c>
       <c r="R8">
-        <v>78.89245503194701</v>
+        <v>38.363869618338</v>
       </c>
       <c r="S8">
-        <v>0.11681179828181</v>
+        <v>0.02293002131984243</v>
       </c>
       <c r="T8">
-        <v>0.11681179828181</v>
+        <v>0.02293002131984243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N9">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O9">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P9">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q9">
-        <v>3.291043962461333</v>
+        <v>5.890019179769667</v>
       </c>
       <c r="R9">
-        <v>29.619395662152</v>
+        <v>53.010172617927</v>
       </c>
       <c r="S9">
-        <v>0.0438558398254352</v>
+        <v>0.03168409236060407</v>
       </c>
       <c r="T9">
-        <v>0.0438558398254352</v>
+        <v>0.03168409236060407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H10">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J10">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N10">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O10">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P10">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q10">
-        <v>1.933382133706556</v>
+        <v>0.779479531376889</v>
       </c>
       <c r="R10">
-        <v>17.400439203359</v>
+        <v>7.015315782392</v>
       </c>
       <c r="S10">
-        <v>0.02576389077275629</v>
+        <v>0.004193042622029547</v>
       </c>
       <c r="T10">
-        <v>0.02576389077275629</v>
+        <v>0.004193042622029547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H11">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I11">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J11">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N11">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O11">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P11">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q11">
-        <v>2.956371605332778</v>
+        <v>43.97925999112001</v>
       </c>
       <c r="R11">
-        <v>26.607344447995</v>
+        <v>395.81333992008</v>
       </c>
       <c r="S11">
-        <v>0.03939605823161724</v>
+        <v>0.2365769775921438</v>
       </c>
       <c r="T11">
-        <v>0.03939605823161724</v>
+        <v>0.2365769775921438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H12">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N12">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O12">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P12">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q12">
-        <v>5.176644500633</v>
+        <v>6.820192526184889</v>
       </c>
       <c r="R12">
-        <v>46.58980050569701</v>
+        <v>61.381732735664</v>
       </c>
       <c r="S12">
-        <v>0.06898300194178832</v>
+        <v>0.03668775997520504</v>
       </c>
       <c r="T12">
-        <v>0.0689830019417883</v>
+        <v>0.03668775997520504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H13">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N13">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O13">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P13">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q13">
-        <v>1.943520221350222</v>
+        <v>9.423960270361778</v>
       </c>
       <c r="R13">
-        <v>17.491681992152</v>
+        <v>84.81564243325599</v>
       </c>
       <c r="S13">
-        <v>0.02589898904336837</v>
+        <v>0.05069416898239751</v>
       </c>
       <c r="T13">
-        <v>0.02589898904336837</v>
+        <v>0.05069416898239751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H14">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I14">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J14">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N14">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O14">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P14">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q14">
-        <v>0.03745036330855556</v>
+        <v>0.009008231956222223</v>
       </c>
       <c r="R14">
-        <v>0.337053269777</v>
+        <v>0.081074087606</v>
       </c>
       <c r="S14">
-        <v>0.0004990565770005769</v>
+        <v>4.84578478601578E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004990565770005768</v>
+        <v>4.84578478601578E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H15">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I15">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J15">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N15">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O15">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P15">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q15">
-        <v>0.05726606694277778</v>
+        <v>0.5082562906600001</v>
       </c>
       <c r="R15">
-        <v>0.515394602485</v>
+        <v>4.57430661594</v>
       </c>
       <c r="S15">
-        <v>0.0007631169586069056</v>
+        <v>0.002734055486854834</v>
       </c>
       <c r="T15">
-        <v>0.0007631169586069055</v>
+        <v>0.002734055486854834</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H16">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I16">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J16">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N16">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O16">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P16">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q16">
-        <v>0.100273615799</v>
+        <v>0.07881910145022222</v>
       </c>
       <c r="R16">
-        <v>0.9024625421910001</v>
+        <v>0.709371913052</v>
       </c>
       <c r="S16">
-        <v>0.001336227556774803</v>
+        <v>0.0004239904173327873</v>
       </c>
       <c r="T16">
-        <v>0.001336227556774802</v>
+        <v>0.0004239904173327873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H17">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N17">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O17">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P17">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q17">
-        <v>0.03764674200622221</v>
+        <v>0.1089101338064444</v>
       </c>
       <c r="R17">
-        <v>0.338820678056</v>
+        <v>0.9801912042579999</v>
       </c>
       <c r="S17">
-        <v>0.000501673483006158</v>
+        <v>0.0005858586590653642</v>
       </c>
       <c r="T17">
-        <v>0.000501673483006158</v>
+        <v>0.0005858586590653642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H18">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I18">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J18">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N18">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O18">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P18">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q18">
-        <v>3.957498576700111</v>
+        <v>0.5678649405897778</v>
       </c>
       <c r="R18">
-        <v>35.617487190301</v>
+        <v>5.110784465308</v>
       </c>
       <c r="S18">
-        <v>0.05273689007768368</v>
+        <v>0.003054707408728517</v>
       </c>
       <c r="T18">
-        <v>0.05273689007768367</v>
+        <v>0.003054707408728517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H19">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I19">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J19">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N19">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O19">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P19">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q19">
-        <v>6.051486778700555</v>
+        <v>32.03968655588</v>
       </c>
       <c r="R19">
-        <v>54.463381008305</v>
+        <v>288.35717900292</v>
       </c>
       <c r="S19">
-        <v>0.08064098744944934</v>
+        <v>0.1723506082166959</v>
       </c>
       <c r="T19">
-        <v>0.08064098744944932</v>
+        <v>0.1723506082166959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H20">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I20">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J20">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N20">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O20">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P20">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q20">
-        <v>10.596230763787</v>
+        <v>4.968633643081778</v>
       </c>
       <c r="R20">
-        <v>95.36607687408301</v>
+        <v>44.71770278773599</v>
       </c>
       <c r="S20">
-        <v>0.1412034006323158</v>
+        <v>0.02672769687985362</v>
       </c>
       <c r="T20">
-        <v>0.1412034006323157</v>
+        <v>0.02672769687985362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H21">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I21">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J21">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N21">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O21">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P21">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q21">
-        <v>3.978250536036444</v>
+        <v>6.865525550871555</v>
       </c>
       <c r="R21">
-        <v>35.804254824328</v>
+        <v>61.789729957844</v>
       </c>
       <c r="S21">
-        <v>0.05301342682866573</v>
+        <v>0.03693161923904092</v>
       </c>
       <c r="T21">
-        <v>0.05301342682866573</v>
+        <v>0.03693161923904092</v>
       </c>
     </row>
   </sheetData>
